--- a/data/trans_dic/P36BPD04_R2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R2_2023-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.2560045523773963</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2380801120811639</v>
+        <v>0.238080112081164</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2467799605384099</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2211808417648783</v>
+        <v>0.2181517830373797</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2122042235262195</v>
+        <v>0.2127093845559114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2250395521156832</v>
+        <v>0.2236048505214937</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2943356524514055</v>
+        <v>0.2935800489943171</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2648887244548442</v>
+        <v>0.2641904821915532</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2704356346802025</v>
+        <v>0.2712284624413183</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.2039531303664935</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1966352008990228</v>
+        <v>0.1966352008990229</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.200257256710344</v>
+        <v>0.2002572567103439</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.176352755380569</v>
+        <v>0.1753173478693932</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1761719713484172</v>
+        <v>0.1759102360145565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1838540051673449</v>
+        <v>0.1831740580617951</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2364169929927638</v>
+        <v>0.2330197490288305</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.21992080126525</v>
+        <v>0.218419358574309</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2202283509080847</v>
+        <v>0.219220869242513</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2051654750156834</v>
+        <v>0.2051654750156835</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.191103422859509</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1741475969316006</v>
+        <v>0.1735036288920394</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1662443811093247</v>
+        <v>0.1663024555580235</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1782632353614958</v>
+        <v>0.1772785693982536</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.240354584104735</v>
+        <v>0.2383095481759433</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2181204204347233</v>
+        <v>0.2181057992926109</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2192612861728048</v>
+        <v>0.2176967250632251</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1744101852465041</v>
+        <v>0.1744101852465042</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2079821208326719</v>
+        <v>0.207982120832672</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1922235962647196</v>
+        <v>0.1922235962647197</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1500575469907187</v>
+        <v>0.1512452879424093</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1882949883041417</v>
+        <v>0.1876549566450383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1772742767729133</v>
+        <v>0.1767463631930807</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2011832634649677</v>
+        <v>0.2020308259083484</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.230285764279698</v>
+        <v>0.2298450717117014</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2093132851197135</v>
+        <v>0.2110054413360724</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.190144816986225</v>
+        <v>0.1914016541955485</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1961171684420914</v>
+        <v>0.1955637911400777</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1973816821303135</v>
+        <v>0.198122545278084</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2218957362318749</v>
+        <v>0.222442671753713</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2191352933495407</v>
+        <v>0.2175282051608514</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2169737425069609</v>
+        <v>0.2176630712269832</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>152533</v>
+        <v>150444</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>155169</v>
+        <v>155538</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>319748</v>
+        <v>317709</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>202982</v>
+        <v>202461</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>193693</v>
+        <v>193182</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>384249</v>
+        <v>385375</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>184979</v>
+        <v>183893</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>188556</v>
+        <v>188276</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>389625</v>
+        <v>388184</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>247982</v>
+        <v>244418</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>235380</v>
+        <v>233773</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>466710</v>
+        <v>464575</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>139853</v>
+        <v>139336</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>135033</v>
+        <v>135081</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>287954</v>
+        <v>286364</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>193022</v>
+        <v>191380</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>177170</v>
+        <v>177158</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>354180</v>
+        <v>351652</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>148399</v>
+        <v>149573</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>210495</v>
+        <v>209780</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>373490</v>
+        <v>372377</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>198959</v>
+        <v>199797</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>257437</v>
+        <v>256944</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>440991</v>
+        <v>444556</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>671318</v>
+        <v>675755</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>731846</v>
+        <v>729781</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1433433</v>
+        <v>1438813</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>783417</v>
+        <v>785348</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>817742</v>
+        <v>811745</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1575715</v>
+        <v>1580721</v>
       </c>
     </row>
     <row r="24">
